--- a/data/input/absenteeism_data_36.xlsx
+++ b/data/input/absenteeism_data_36.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39516</v>
+        <v>10799</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vicente Martins</t>
+          <t>Breno Pinto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>11333.55</v>
+        <v>11821.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68766</v>
+        <v>36498</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rebeca das Neves</t>
+          <t>Ryan Lima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>11418.94</v>
+        <v>7995.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14689</v>
+        <v>2362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Felipe da Mata</t>
+          <t>Júlia da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>6638.52</v>
+        <v>5255.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40399</v>
+        <v>3344</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Arthur Barros</t>
+          <t>Diego das Neves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>5297.28</v>
+        <v>12493.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8211</v>
+        <v>16340</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diogo Barbosa</t>
+          <t>João Guilherme Lima</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45104</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>9256.09</v>
+        <v>3808.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>78916</v>
+        <v>69632</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Melissa Ramos</t>
+          <t>Alana Nogueira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>7740.62</v>
+        <v>11686.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>40982</v>
+        <v>28538</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luna Oliveira</t>
+          <t>Esther Pinto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>6890.75</v>
+        <v>3065.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>34811</v>
+        <v>19453</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ryan Almeida</t>
+          <t>Levi das Neves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>2603.92</v>
+        <v>5756.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>71477</v>
+        <v>16536</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Clara Peixoto</t>
+          <t>Breno Porto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>9024.209999999999</v>
+        <v>4378.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>63257</v>
+        <v>49605</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thiago Lima</t>
+          <t>Vitória Araújo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>6757.16</v>
+        <v>6758.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_36.xlsx
+++ b/data/input/absenteeism_data_36.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10799</v>
+        <v>65045</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Breno Pinto</t>
+          <t>Stella Viana</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>11821.27</v>
+        <v>9918.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36498</v>
+        <v>72602</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ryan Lima</t>
+          <t>Pietro Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,138 +523,138 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45081</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>7995.4</v>
+        <v>2927.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2362</v>
+        <v>60499</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Júlia da Cruz</t>
+          <t>Eduardo da Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>5255.76</v>
+        <v>4389.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3344</v>
+        <v>13371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diego das Neves</t>
+          <t>Leandro Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>12493.77</v>
+        <v>7838.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16340</v>
+        <v>11250</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Guilherme Lima</t>
+          <t>Dr. Enzo Gabriel Correia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>3808.06</v>
+        <v>10935.44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>69632</v>
+        <v>72650</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alana Nogueira</t>
+          <t>Ana Clara Oliveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45092</v>
       </c>
       <c r="G7" t="n">
-        <v>11686.8</v>
+        <v>10158.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28538</v>
+        <v>26259</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Esther Pinto</t>
+          <t>Miguel Campos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45105</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>3065.83</v>
+        <v>8323.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19453</v>
+        <v>17165</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Levi das Neves</t>
+          <t>Davi Rezende</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>5756.77</v>
+        <v>6658.38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16536</v>
+        <v>56335</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Breno Porto</t>
+          <t>Isis Rezende</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="G10" t="n">
-        <v>4378.56</v>
+        <v>10107.34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49605</v>
+        <v>60183</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vitória Araújo</t>
+          <t>Ana Carolina Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>6758.5</v>
+        <v>10738.47</v>
       </c>
     </row>
   </sheetData>
